--- a/assets/info/plantilla-reportes.xlsx
+++ b/assets/info/plantilla-reportes.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t xml:space="preserve">REPORTES NOTICIAS</t>
   </si>
@@ -69,6 +70,15 @@
   </si>
   <si>
     <t xml:space="preserve">SUBTEMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTRO TEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTRO SUBTEMA</t>
   </si>
 </sst>
 </file>
@@ -201,20 +211,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -259,6 +269,71 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Accent1" xfId="20"/>
   </cellStyles>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93C90F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00A3E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF9600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93C90F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00A3E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF9600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93C90F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00A3E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF9600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -293,7 +368,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00A3E1"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -303,9 +378,9 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF93C90F"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFEF9600"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -333,9 +408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>983880</xdr:colOff>
+      <xdr:colOff>983520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -349,7 +424,91 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="314280"/>
-          <a:ext cx="3587400" cy="1123200"/>
+          <a:ext cx="3587040" cy="1122840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Imagen 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66600" y="314640"/>
+          <a:ext cx="3526560" cy="1256400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66600" y="314640"/>
+          <a:ext cx="3336120" cy="1303920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -371,28 +530,28 @@
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="46.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="59.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="43.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="37.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="59.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="26.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="43.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="37.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="4" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,23 +568,23 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -476,6 +635,19 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="G6:G1048576 G1">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Reforma Electoral" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("Reforma Electoral",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Censo" dxfId="1">
+      <formula>NOT(ISERROR(SEARCH("Censo",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Institucionalidad Democratica" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("Institucionalidad Democratica",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -492,14 +664,112 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="59.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="26.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="58.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="43.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="37.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="4" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6:G1048576 G1">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Reforma Electoral" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("Reforma Electoral",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Censo" dxfId="4">
+      <formula>NOT(ISERROR(SEARCH("Censo",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Institucionalidad Democratica" dxfId="5">
+      <formula>NOT(ISERROR(SEARCH("Institucionalidad Democratica",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -507,5 +777,130 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="59.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="26.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="52.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="61.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="43.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="40.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="37.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="4" width="11.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6:G1048576 G1">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Reforma Electoral" dxfId="6">
+      <formula>NOT(ISERROR(SEARCH("Reforma Electoral",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Censo" dxfId="7">
+      <formula>NOT(ISERROR(SEARCH("Censo",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Institucionalidad Democratica" dxfId="8">
+      <formula>NOT(ISERROR(SEARCH("Institucionalidad Democratica",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>